--- a/templates/ведомость_курсанты_СП.xlsx
+++ b/templates/ведомость_курсанты_СП.xlsx
@@ -15,17 +15,18 @@
     <sheet name="СП" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">СП!$O$12:$O$20</definedName>
-    <definedName name="EmptyRows">СП!$A$14</definedName>
-    <definedName name="RegisterDate">СП!$A$4</definedName>
-    <definedName name="SoldierList">СП!$A$13</definedName>
-    <definedName name="ВУС">СП!$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">СП!$O$13:$O$21</definedName>
+    <definedName name="EmptyRows">СП!$A$15</definedName>
+    <definedName name="OCRCode">СП!$M$4</definedName>
+    <definedName name="RegisterDate">СП!$A$5</definedName>
+    <definedName name="SoldierList">СП!$A$14</definedName>
+    <definedName name="ВУС">СП!$A$8</definedName>
     <definedName name="Заголовок">СП!$A$2</definedName>
     <definedName name="ИмяПодразделения">СП!$A$3</definedName>
-    <definedName name="КВ">СП!$A$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">СП!$A$1:$M$20</definedName>
-    <definedName name="Подпись">СП!$A$20</definedName>
-    <definedName name="Преподаватели">СП!$A$6</definedName>
+    <definedName name="КВ">СП!$A$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">СП!$A$1:$M$21</definedName>
+    <definedName name="Подпись">СП!$A$21</definedName>
+    <definedName name="Преподаватели">СП!$A$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -280,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,6 +322,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -335,30 +363,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,10 +648,10 @@
     <tabColor indexed="26"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:M7"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,64 +668,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -733,231 +735,236 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="O4" s="2"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M10" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-    </row>
-    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="6">
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <v>3</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="6">
+      <c r="G12" s="24"/>
+      <c r="H12" s="6">
         <v>1</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I12" s="6">
         <v>2</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J12" s="6">
         <v>3</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>4</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>6</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>7</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="6">
         <v>8</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I13" s="6">
         <v>9</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J13" s="6">
         <v>10</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K13" s="6">
         <v>11</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L13" s="6">
         <v>12</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M13" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+    <row r="14" spans="1:17" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="1:17" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1034,46 +1041,62 @@
       <c r="M18" s="12"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+    <row r="19" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:M9"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:K12"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/templates/ведомость_курсанты_СП.xlsx
+++ b/templates/ведомость_курсанты_СП.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pronko\prj\Grader\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YUKI\3_Вирусы\Pronko_2\prj\Grader\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -325,6 +325,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -348,21 +363,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,7 +651,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A9" sqref="A9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -668,55 +668,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -742,155 +742,155 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22" t="s">
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="6">
         <v>1</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="F12" s="6">
         <v>3</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="6">
         <v>1</v>
       </c>
@@ -910,9 +910,9 @@
       <c r="J12" s="6">
         <v>3</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
@@ -1059,32 +1059,24 @@
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A8:M8"/>
     <mergeCell ref="A21:M21"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
@@ -1097,7 +1089,16 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:M8"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
